--- a/data/kaka收货信息收集表（收集结果）1.xlsx
+++ b/data/kaka收货信息收集表（收集结果）1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12780"/>
+    <workbookView windowHeight="18390"/>
   </bookViews>
   <sheets>
     <sheet name="kaka收货信息收集表（收集结果）" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="103">
   <si>
     <t>收货人（必填）</t>
   </si>
@@ -729,15 +729,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>收件人: 赵
-手机号码:17537847844河南省郑州市管城回族区航海东路街道 择邻青年首宅5号楼一单元7楼41号</t>
-    </r>
+    <t>河南省开封市杞县阳固镇圆通快递</t>
   </si>
   <si>
     <r>
@@ -750,9 +742,6 @@
     </r>
   </si>
   <si>
-    <t>18301607881</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -814,6 +803,12 @@
       </rPr>
       <t>湖南省长沙市天心区中煤和悦府</t>
     </r>
+  </si>
+  <si>
+    <t>罗</t>
+  </si>
+  <si>
+    <t>四川省成都市新都区成都机务段和谐检修基地</t>
   </si>
 </sst>
 </file>
@@ -839,6 +834,11 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -991,11 +991,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1302,157 +1297,166 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1987,535 +1991,552 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H17" sqref="H17"/>
+      <selection pane="topRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="9" width="20"/>
+    <col min="1" max="4" width="20"/>
+    <col min="5" max="5" width="96.8181818181818" customWidth="1"/>
+    <col min="6" max="9" width="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="16" spans="1:9">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" ht="16" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" ht="16" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" ht="16" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" ht="16" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" ht="16" spans="1:9">
-      <c r="A7" s="1" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" ht="16" spans="1:9">
-      <c r="A8" s="1" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" ht="16" spans="1:9">
-      <c r="A9" s="1" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" ht="16" spans="1:9">
-      <c r="A10" s="1" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" ht="16" spans="1:9">
-      <c r="A11" s="1" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" ht="16" spans="1:9">
-      <c r="A12" s="1" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" ht="16" spans="1:9">
-      <c r="A13" s="1" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" ht="16" spans="1:9">
-      <c r="A14" s="1" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" ht="16" spans="1:9">
-      <c r="A15" s="1" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" ht="16" spans="1:9">
-      <c r="A16" s="1" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" ht="16" spans="1:9">
-      <c r="A17" s="1" t="s">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" ht="16" spans="1:9">
-      <c r="A18" s="1" t="s">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" ht="16" spans="1:9">
-      <c r="A19" s="1" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" ht="16" spans="1:9">
-      <c r="A20" s="1" t="s">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" ht="16" spans="1:9">
-      <c r="A21" s="1" t="s">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" ht="16" spans="1:9">
-      <c r="A22" s="1" t="s">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" ht="16" spans="1:9">
-      <c r="A23" s="1" t="s">
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" ht="16" spans="1:9">
-      <c r="A24" s="1" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1">
+        <v>18301607881</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" ht="16" spans="1:9">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" ht="16" spans="1:9">
-      <c r="A26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>18881682565</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
